--- a/Result_files/V3_Bids_2020-08-10_2020-08-16.xlsx
+++ b/Result_files/V3_Bids_2020-08-10_2020-08-16.xlsx
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.732</v>
+        <v>17.27299999999997</v>
       </c>
       <c r="H2" t="n">
         <v>47.8</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>394.2356859460849</v>
+        <v>394.2356859460862</v>
       </c>
       <c r="K3" t="n">
         <v>29.16</v>
@@ -654,10 +654,10 @@
         <v>24.36</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>372.703539947469</v>
+        <v>2519.375667486504</v>
       </c>
       <c r="K4" t="n">
         <v>28</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2459.756673955036</v>
+        <v>2459.50707008175</v>
       </c>
       <c r="K5" t="n">
         <v>26.17</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>27.92</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2464.501636990189</v>
+        <v>2503.845761451274</v>
       </c>
       <c r="K6" t="n">
         <v>25.780001</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>27.92</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0.39</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>49.8</v>
       </c>
       <c r="G7" t="n">
         <v>20.28499999999991</v>
       </c>
       <c r="H7" t="n">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18.72499999999997</v>
+        <v>18.729</v>
       </c>
       <c r="J7" t="n">
-        <v>-1067.27590944</v>
+        <v>1220.536674829424</v>
       </c>
       <c r="K7" t="n">
         <v>25.799999</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>27.92</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0.39</v>
       </c>
       <c r="F8" t="n">
-        <v>39.6</v>
+        <v>42.7</v>
       </c>
       <c r="G8" t="n">
         <v>20.28499999999991</v>
       </c>
       <c r="H8" t="n">
-        <v>10.2</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>18.72499999999997</v>
       </c>
       <c r="J8" t="n">
-        <v>-1063.604276159999</v>
+        <v>182.954663168032</v>
       </c>
       <c r="K8" t="n">
         <v>24.700001</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>27.92</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0.39</v>
       </c>
       <c r="F9" t="n">
-        <v>49.8</v>
+        <v>30.2</v>
       </c>
       <c r="G9" t="n">
         <v>18.45599999999996</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>19.6</v>
       </c>
       <c r="I9" t="n">
-        <v>15.999</v>
+        <v>15.99599999999992</v>
       </c>
       <c r="J9" t="n">
-        <v>-1816.270131520941</v>
+        <v>-905.7062218909273</v>
       </c>
       <c r="K9" t="n">
         <v>24.4</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>23.16</v>
+        <v>25.77</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>0.39</v>
       </c>
       <c r="F10" t="n">
-        <v>49.8</v>
+        <v>43.40000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>18.45599999999996</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>15.999</v>
+        <v>15.99599999999992</v>
       </c>
       <c r="J10" t="n">
-        <v>-2932.735535414232</v>
+        <v>-922.0077981247871</v>
       </c>
       <c r="K10" t="n">
         <v>25.30001</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>23.16</v>
+        <v>25.77</v>
       </c>
       <c r="D11" t="n">
         <v>49.8</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-2430.053159932897</v>
+        <v>-547.9705474750903</v>
       </c>
       <c r="K11" t="n">
         <v>24.639999</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>23.16</v>
+        <v>25.77</v>
       </c>
       <c r="D12" t="n">
         <v>49.8</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-2950.774998846195</v>
+        <v>-1741.546773033403</v>
       </c>
       <c r="K12" t="n">
         <v>26.42</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23.16</v>
+        <v>25.77</v>
       </c>
       <c r="D13" t="n">
         <v>49.8</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3199.636686652809</v>
+        <v>-2199.456052294334</v>
       </c>
       <c r="K13" t="n">
         <v>25.370001</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D14" t="n">
         <v>49.8</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-3124.886067388909</v>
+        <v>-1898.024000861159</v>
       </c>
       <c r="K14" t="n">
         <v>24.1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>17.217</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J15" t="n">
-        <v>-2531.774828981198</v>
+        <v>-1618.12760880542</v>
       </c>
       <c r="K15" t="n">
         <v>23.41</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.217</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J16" t="n">
-        <v>-1784.856717740621</v>
+        <v>-1107.867255034693</v>
       </c>
       <c r="K16" t="n">
         <v>23.43</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>17.217</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J17" t="n">
-        <v>-2517.685191361503</v>
+        <v>-543.4660394034386</v>
       </c>
       <c r="K17" t="n">
         <v>23.93</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>22.5</v>
+        <v>25.12</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>17.917</v>
       </c>
       <c r="J18" t="n">
-        <v>-1843.404892409009</v>
+        <v>-613.113589113504</v>
       </c>
       <c r="K18" t="n">
         <v>27.66</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>22.5</v>
+        <v>25.12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0.39</v>
       </c>
       <c r="F19" t="n">
-        <v>49.8</v>
+        <v>14.5</v>
       </c>
       <c r="G19" t="n">
         <v>14.94900000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.3</v>
       </c>
       <c r="I19" t="n">
-        <v>17.917</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J19" t="n">
-        <v>-899.1492875307233</v>
+        <v>-730.9264365000005</v>
       </c>
       <c r="K19" t="n">
         <v>29.459999</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>22.5</v>
+        <v>25.12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0.39</v>
       </c>
       <c r="F20" t="n">
-        <v>17.3</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>15.37700000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>32.5</v>
+        <v>42.7</v>
       </c>
       <c r="I20" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J20" t="n">
-        <v>-738.8320288799999</v>
+        <v>-726.4774869600002</v>
       </c>
       <c r="K20" t="n">
         <v>35</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>22.5</v>
+        <v>25.12</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15.523</v>
+        <v>15.52300000000001</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>13.286</v>
       </c>
       <c r="J21" t="n">
-        <v>-681.8960932903389</v>
+        <v>-267.883020229595</v>
       </c>
       <c r="K21" t="n">
         <v>39.900002</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>20.16</v>
+        <v>24.21</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.523</v>
+        <v>16.389</v>
       </c>
       <c r="H22" t="n">
         <v>49.8</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>20.16</v>
+        <v>24.21</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>16.469</v>
+        <v>16.473</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>20.16</v>
+        <v>24.21</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>16.611</v>
+        <v>16.61099999999998</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1792,7 +1792,7 @@
         <v>14.09499999999997</v>
       </c>
       <c r="J24" t="n">
-        <v>-308.0155046492081</v>
+        <v>-308.0155046492093</v>
       </c>
       <c r="K24" t="n">
         <v>35.9</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>20.16</v>
+        <v>24.21</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.61099999999998</v>
+        <v>15.44299999999993</v>
       </c>
       <c r="H25" t="n">
         <v>49.8</v>
@@ -1848,7 +1848,7 @@
         <v>14.09499999999997</v>
       </c>
       <c r="J25" t="n">
-        <v>-348.8121196473991</v>
+        <v>-348.8121196473986</v>
       </c>
       <c r="K25" t="n">
         <v>26.27</v>
@@ -1904,7 +1904,7 @@
         <v>14.762</v>
       </c>
       <c r="J26" t="n">
-        <v>-476.1578354740445</v>
+        <v>-476.1578354740454</v>
       </c>
       <c r="K26" t="n">
         <v>34.57</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>386.3510489410285</v>
+        <v>386.3510489410291</v>
       </c>
       <c r="K27" t="n">
         <v>30.540001</v>
@@ -1998,10 +1998,10 @@
         <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>373.4008676773424</v>
+        <v>2520.054825253829</v>
       </c>
       <c r="K28" t="n">
         <v>27.620001</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2350.404366090886</v>
+        <v>2350.404366090887</v>
       </c>
       <c r="K29" t="n">
         <v>26.629999</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>25.48</v>
+        <v>27.32</v>
       </c>
       <c r="D30" t="n">
         <v>49.8</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2307.611743749665</v>
+        <v>2358.387438669229</v>
       </c>
       <c r="K30" t="n">
         <v>26</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>25.48</v>
+        <v>27.32</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.72900000000001</v>
+        <v>18.729</v>
       </c>
       <c r="J31" t="n">
-        <v>780.2734581435595</v>
+        <v>1235.261712653599</v>
       </c>
       <c r="K31" t="n">
         <v>25.75</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>25.48</v>
+        <v>27.32</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>18.72900000000001</v>
+        <v>22.281</v>
       </c>
       <c r="J32" t="n">
-        <v>-822.4962368933225</v>
+        <v>-271.268561013514</v>
       </c>
       <c r="K32" t="n">
         <v>25.799999</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>25.48</v>
+        <v>27.32</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>15.999</v>
       </c>
       <c r="J33" t="n">
-        <v>-2000.308388416767</v>
+        <v>-1287.178092753772</v>
       </c>
       <c r="K33" t="n">
         <v>26.5</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>19.2</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>15.999</v>
       </c>
       <c r="J34" t="n">
-        <v>-3095.270334703821</v>
+        <v>-1684.576840953323</v>
       </c>
       <c r="K34" t="n">
         <v>26.870001</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>19.2</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
         <v>49.8</v>
@@ -2408,7 +2408,7 @@
         <v>14.167</v>
       </c>
       <c r="J35" t="n">
-        <v>-3049.330284943751</v>
+        <v>-1050.462484230829</v>
       </c>
       <c r="K35" t="n">
         <v>26.73</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>19.2</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
         <v>49.8</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-3470.798703254281</v>
+        <v>-2673.950833951703</v>
       </c>
       <c r="K36" t="n">
         <v>24.35</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.2</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
         <v>49.8</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-3318.586645242249</v>
+        <v>-2096.323960831439</v>
       </c>
       <c r="K37" t="n">
         <v>21.42</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D38" t="n">
         <v>49.8</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-3037.891252728967</v>
+        <v>-2710.28879920198</v>
       </c>
       <c r="K38" t="n">
         <v>16.299999</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13.143</v>
+        <v>13.278</v>
       </c>
       <c r="J39" t="n">
-        <v>-3533.137740660954</v>
+        <v>-2594.147122537007</v>
       </c>
       <c r="K39" t="n">
         <v>16.299999</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.143</v>
+        <v>13.278</v>
       </c>
       <c r="J40" t="n">
-        <v>-3051.480693302403</v>
+        <v>-1851.244010971921</v>
       </c>
       <c r="K40" t="n">
         <v>16.700001</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.2</v>
+        <v>31.11</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>13.143</v>
+        <v>13.27800000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>-2648.13215606642</v>
+        <v>-1078.591014762499</v>
       </c>
       <c r="K41" t="n">
         <v>21</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>25.12</v>
+        <v>26.7</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.635</v>
+        <v>17.217</v>
       </c>
       <c r="J42" t="n">
-        <v>-1965.662637958797</v>
+        <v>-103.9949256539091</v>
       </c>
       <c r="K42" t="n">
         <v>22.790001</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.12</v>
+        <v>26.7</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>0.39</v>
       </c>
       <c r="F43" t="n">
-        <v>49.8</v>
+        <v>20.7</v>
       </c>
       <c r="G43" t="n">
         <v>14.952</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="I43" t="n">
-        <v>13.635</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J43" t="n">
-        <v>-755.8280813024147</v>
+        <v>-734.3732548800006</v>
       </c>
       <c r="K43" t="n">
         <v>28</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>25.12</v>
+        <v>26.7</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2900,19 +2900,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F44" t="n">
-        <v>17.9</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>15.38200000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>31.9</v>
+        <v>49.8</v>
       </c>
       <c r="I44" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J44" t="n">
-        <v>-749.9786580999995</v>
+        <v>-737.584568317049</v>
       </c>
       <c r="K44" t="n">
         <v>34.650002</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>25.12</v>
+        <v>26.7</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>16.391</v>
+        <v>15.52499999999992</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>13.27799999999996</v>
       </c>
       <c r="J45" t="n">
-        <v>-519.1288891553829</v>
+        <v>-278.0278679075649</v>
       </c>
       <c r="K45" t="n">
         <v>37.950001</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.391</v>
+        <v>15.52499999999992</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>16.474</v>
+        <v>16.07599999999996</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3080,7 +3080,7 @@
         <v>13.72499999999997</v>
       </c>
       <c r="J47" t="n">
-        <v>-303.3104310048201</v>
+        <v>-303.31043100482</v>
       </c>
       <c r="K47" t="n">
         <v>38</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>15.447</v>
+        <v>16.617</v>
       </c>
       <c r="H48" t="n">
         <v>49.8</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>20.16</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>13.42699999999996</v>
       </c>
       <c r="J49" t="n">
-        <v>-330.4435074578175</v>
+        <v>-330.4435074578178</v>
       </c>
       <c r="K49" t="n">
         <v>37.52</v>
@@ -3248,7 +3248,7 @@
         <v>14.762</v>
       </c>
       <c r="J50" t="n">
-        <v>-462.6759825414802</v>
+        <v>-462.6759825414783</v>
       </c>
       <c r="K50" t="n">
         <v>32.619999</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>379.3514506241746</v>
+        <v>2562.951323040954</v>
       </c>
       <c r="K51" t="n">
         <v>28.299999</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2458.635393621759</v>
+        <v>2458.386067742415</v>
       </c>
       <c r="K52" t="n">
         <v>27.15</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2331.401422015592</v>
+        <v>2366.019432715105</v>
       </c>
       <c r="K54" t="n">
         <v>25.969999</v>
@@ -3516,19 +3516,19 @@
         <v>0.26</v>
       </c>
       <c r="F55" t="n">
-        <v>10.5</v>
+        <v>49.8</v>
       </c>
       <c r="G55" t="n">
         <v>20.28100000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>39.3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>18.3189999999999</v>
+        <v>18.725</v>
       </c>
       <c r="J55" t="n">
-        <v>-1068.0151641</v>
+        <v>1426.909438642829</v>
       </c>
       <c r="K55" t="n">
         <v>26.66</v>
@@ -3572,19 +3572,19 @@
         <v>0.26</v>
       </c>
       <c r="F56" t="n">
-        <v>45.90000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="G56" t="n">
         <v>20.28100000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>44.3</v>
       </c>
       <c r="I56" t="n">
         <v>18.3189999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>-1058.58599886</v>
+        <v>-1069.3469671</v>
       </c>
       <c r="K56" t="n">
         <v>33.279999</v>
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>15.999</v>
+        <v>15.996</v>
       </c>
       <c r="J57" t="n">
-        <v>-1638.5232733673</v>
+        <v>-1065.789681878096</v>
       </c>
       <c r="K57" t="n">
         <v>38.740002</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>23.16</v>
+        <v>21.52</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>15.999</v>
       </c>
       <c r="J58" t="n">
-        <v>-2696.743117393025</v>
+        <v>-1931.939156222584</v>
       </c>
       <c r="K58" t="n">
         <v>37.7</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>23.16</v>
+        <v>21.52</v>
       </c>
       <c r="D59" t="n">
         <v>49.8</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-2290.771998493849</v>
+        <v>-1398.352984348651</v>
       </c>
       <c r="K59" t="n">
         <v>35.549999</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>23.16</v>
+        <v>21.52</v>
       </c>
       <c r="D60" t="n">
         <v>49.8</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-3173.857784619508</v>
+        <v>299.705261411461</v>
       </c>
       <c r="K60" t="n">
         <v>30.299999</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>23.16</v>
+        <v>21.52</v>
       </c>
       <c r="D61" t="n">
         <v>49.8</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-3564.744775523952</v>
+        <v>-1453.496006413275</v>
       </c>
       <c r="K61" t="n">
         <v>26.65</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-2984.178371870243</v>
+        <v>-1260.533328309802</v>
       </c>
       <c r="K62" t="n">
         <v>21.540001</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>17.232</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J63" t="n">
-        <v>-3518.7494546882</v>
+        <v>-581.286307727231</v>
       </c>
       <c r="K63" t="n">
         <v>21</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>17.232</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J64" t="n">
-        <v>-2877.853990164477</v>
+        <v>-839.5154336958188</v>
       </c>
       <c r="K64" t="n">
         <v>19.23</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>17.232</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J65" t="n">
-        <v>-2558.413335232065</v>
+        <v>-1843.747348433802</v>
       </c>
       <c r="K65" t="n">
         <v>22.77</v>
@@ -4144,7 +4144,7 @@
         <v>17.232</v>
       </c>
       <c r="J66" t="n">
-        <v>-1056.022352715856</v>
+        <v>-928.9074905322685</v>
       </c>
       <c r="K66" t="n">
         <v>26.66</v>
@@ -4188,19 +4188,19 @@
         <v>0.4</v>
       </c>
       <c r="F67" t="n">
-        <v>49.8</v>
+        <v>13.8</v>
       </c>
       <c r="G67" t="n">
         <v>14.94999999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I67" t="n">
-        <v>17.232</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J67" t="n">
-        <v>-1086.03650535328</v>
+        <v>-725.9221739999994</v>
       </c>
       <c r="K67" t="n">
         <v>37.900002</v>
@@ -4244,19 +4244,19 @@
         <v>0.4</v>
       </c>
       <c r="F68" t="n">
-        <v>20.6</v>
+        <v>2.2</v>
       </c>
       <c r="G68" t="n">
         <v>15.37399999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>29.2</v>
+        <v>47.6</v>
       </c>
       <c r="I68" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J68" t="n">
-        <v>-742.6282941007613</v>
+        <v>-721.1111463999998</v>
       </c>
       <c r="K68" t="n">
         <v>42.189999</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>15.525</v>
+        <v>16.389</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>13.286</v>
       </c>
       <c r="J69" t="n">
-        <v>-557.9402175639607</v>
+        <v>-245.8140838341706</v>
       </c>
       <c r="K69" t="n">
         <v>44.639999</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>15.525</v>
+        <v>16.389</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>13.286</v>
       </c>
       <c r="J70" t="n">
-        <v>-248.3858803989459</v>
+        <v>-248.385880398946</v>
       </c>
       <c r="K70" t="n">
         <v>42.220001</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>16.466</v>
+        <v>16.07400000000001</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4424,7 +4424,7 @@
         <v>13.952</v>
       </c>
       <c r="J71" t="n">
-        <v>-291.7261937288492</v>
+        <v>-291.7261937288463</v>
       </c>
       <c r="K71" t="n">
         <v>41.959999</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>15.4439999999999</v>
+        <v>16.608</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>15.4439999999999</v>
+        <v>16.60799999999999</v>
       </c>
       <c r="H73" t="n">
         <v>49.8</v>
@@ -4592,7 +4592,7 @@
         <v>14.762</v>
       </c>
       <c r="J74" t="n">
-        <v>-419.8374061997957</v>
+        <v>-419.8374061997943</v>
       </c>
       <c r="K74" t="n">
         <v>34</v>
@@ -4630,10 +4630,10 @@
         <v>17.82</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E75" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>385.3911194157612</v>
+        <v>2596.704481401841</v>
       </c>
       <c r="K75" t="n">
         <v>28.360001</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2464.1554088903</v>
+        <v>2466.136328674358</v>
       </c>
       <c r="K76" t="n">
         <v>27</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2313.603820336199</v>
+        <v>2352.203961276505</v>
       </c>
       <c r="K78" t="n">
         <v>25.2</v>
@@ -4860,19 +4860,19 @@
         <v>0.39</v>
       </c>
       <c r="F79" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>24.26500000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>42.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I79" t="n">
         <v>18.596</v>
       </c>
       <c r="J79" t="n">
-        <v>-1054.37761324</v>
+        <v>-748.9255628362946</v>
       </c>
       <c r="K79" t="n">
         <v>25.59999</v>
@@ -4916,19 +4916,19 @@
         <v>0.39</v>
       </c>
       <c r="F80" t="n">
-        <v>43.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>24.265</v>
       </c>
       <c r="H80" t="n">
-        <v>5.9</v>
+        <v>49.8</v>
       </c>
       <c r="I80" t="n">
         <v>18.596</v>
       </c>
       <c r="J80" t="n">
-        <v>-920.5276456400001</v>
+        <v>-778.2333902132261</v>
       </c>
       <c r="K80" t="n">
         <v>24.940001</v>
@@ -4972,19 +4972,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F81" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>17.54899999999992</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I81" t="n">
-        <v>15.996</v>
+        <v>15.721</v>
       </c>
       <c r="J81" t="n">
-        <v>-2202.664810839274</v>
+        <v>-702.5902287842507</v>
       </c>
       <c r="K81" t="n">
         <v>25.4</v>
@@ -5028,19 +5028,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F82" t="n">
-        <v>49.8</v>
+        <v>15.1</v>
       </c>
       <c r="G82" t="n">
         <v>17.54899999999992</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="I82" t="n">
-        <v>15.996</v>
+        <v>15.721</v>
       </c>
       <c r="J82" t="n">
-        <v>-3394.630553533016</v>
+        <v>-886.9033096470332</v>
       </c>
       <c r="K82" t="n">
         <v>24.91</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-3347.74637392768</v>
+        <v>-181.0862137857324</v>
       </c>
       <c r="K83" t="n">
         <v>24.93</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-3483.210647433737</v>
+        <v>-50.70210680651271</v>
       </c>
       <c r="K84" t="n">
         <v>24.719999</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-3463.516927545455</v>
+        <v>-128.6086937277105</v>
       </c>
       <c r="K85" t="n">
         <v>23.49</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>29.2</v>
+        <v>22.06</v>
       </c>
       <c r="D86" t="n">
         <v>49.8</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-3229.655515418317</v>
+        <v>789.8034402093792</v>
       </c>
       <c r="K86" t="n">
         <v>23.190001</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>29.2</v>
+        <v>22.06</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>49.8</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>16.924</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>13.143</v>
+        <v>17.232</v>
       </c>
       <c r="J87" t="n">
-        <v>-3405.12360543317</v>
+        <v>-332.432978393439</v>
       </c>
       <c r="K87" t="n">
         <v>21.129999</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>29.2</v>
+        <v>22.06</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>13.143</v>
       </c>
       <c r="J88" t="n">
-        <v>-2916.822351027895</v>
+        <v>-625.3291645184948</v>
       </c>
       <c r="K88" t="n">
         <v>19.459999</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>29.2</v>
+        <v>22.06</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>49.8</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>16.924</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>13.143</v>
       </c>
       <c r="J89" t="n">
-        <v>-2513.909757551683</v>
+        <v>563.5517210338304</v>
       </c>
       <c r="K89" t="n">
         <v>20.889999</v>
@@ -5488,7 +5488,7 @@
         <v>13.143</v>
       </c>
       <c r="J90" t="n">
-        <v>-1980.284674879101</v>
+        <v>991.3715782835249</v>
       </c>
       <c r="K90" t="n">
         <v>24.280001</v>
@@ -5532,19 +5532,19 @@
         <v>0.39</v>
       </c>
       <c r="F91" t="n">
-        <v>49.8</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>14.952</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="I91" t="n">
-        <v>13.143</v>
+        <v>13.101</v>
       </c>
       <c r="J91" t="n">
-        <v>-988.4708801552273</v>
+        <v>-691.1718844482137</v>
       </c>
       <c r="K91" t="n">
         <v>26</v>
@@ -5588,19 +5588,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F92" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>16.31999999999999</v>
+        <v>17.48299999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>32.1</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
         <v>13.101</v>
       </c>
       <c r="J92" t="n">
-        <v>-753.3200419799998</v>
+        <v>-394.0372984090683</v>
       </c>
       <c r="K92" t="n">
         <v>29.799999</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>17.483</v>
+        <v>17.48300000000001</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5656,7 +5656,7 @@
         <v>13.101</v>
       </c>
       <c r="J93" t="n">
-        <v>-474.2702420121313</v>
+        <v>-234.4771830216095</v>
       </c>
       <c r="K93" t="n">
         <v>36.150002</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>17.483</v>
+        <v>16.39099999999991</v>
       </c>
       <c r="H94" t="n">
         <v>49.8</v>
@@ -5712,7 +5712,7 @@
         <v>13.101</v>
       </c>
       <c r="J94" t="n">
-        <v>-235.2925099661223</v>
+        <v>-235.2925099661224</v>
       </c>
       <c r="K94" t="n">
         <v>37.52</v>
@@ -5768,7 +5768,7 @@
         <v>13.952</v>
       </c>
       <c r="J95" t="n">
-        <v>-283.083698248608</v>
+        <v>-283.0836982486069</v>
       </c>
       <c r="K95" t="n">
         <v>37.950001</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>17.626</v>
+        <v>15.44599999999997</v>
       </c>
       <c r="H96" t="n">
         <v>49.8</v>
@@ -5824,7 +5824,7 @@
         <v>14.09499999999997</v>
       </c>
       <c r="J96" t="n">
-        <v>-284.1695377163146</v>
+        <v>-284.1695377163153</v>
       </c>
       <c r="K96" t="n">
         <v>40.419998</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>17.626</v>
+        <v>17.62599999999999</v>
       </c>
       <c r="H97" t="n">
         <v>49.8</v>
@@ -5936,7 +5936,7 @@
         <v>14.762</v>
       </c>
       <c r="J98" t="n">
-        <v>-302.4463194500292</v>
+        <v>-302.4463194500282</v>
       </c>
       <c r="K98" t="n">
         <v>30.67</v>
@@ -5974,10 +5974,10 @@
         <v>23.20000000000005</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E99" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>388.2245449921128</v>
+        <v>2609.825245280857</v>
       </c>
       <c r="K99" t="n">
         <v>27.82</v>
@@ -6030,10 +6030,10 @@
         <v>23.20000000000005</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E100" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>377.8970292773743</v>
+        <v>2543.511289465947</v>
       </c>
       <c r="K100" t="n">
         <v>26.9</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2464.471899140407</v>
+        <v>2464.221986042103</v>
       </c>
       <c r="K101" t="n">
         <v>25.25</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2495.97012286033</v>
+        <v>2527.373705112678</v>
       </c>
       <c r="K102" t="n">
         <v>25.23</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>18.596</v>
+        <v>22.00300000000002</v>
       </c>
       <c r="J103" t="n">
-        <v>773.4144039227008</v>
+        <v>1458.621777042537</v>
       </c>
       <c r="K103" t="n">
         <v>25.9</v>
@@ -6260,19 +6260,19 @@
         <v>0.39</v>
       </c>
       <c r="F104" t="n">
-        <v>46.8</v>
+        <v>49.8</v>
       </c>
       <c r="G104" t="n">
         <v>20.28100000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>18.596</v>
+        <v>22.00300000000002</v>
       </c>
       <c r="J104" t="n">
-        <v>-1065.421747680001</v>
+        <v>1119.371645720367</v>
       </c>
       <c r="K104" t="n">
         <v>25.459999</v>
@@ -6316,19 +6316,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F105" t="n">
-        <v>49.8</v>
+        <v>24.6</v>
       </c>
       <c r="G105" t="n">
         <v>18.45299999999992</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="I105" t="n">
-        <v>15.85899999999999</v>
+        <v>15.721</v>
       </c>
       <c r="J105" t="n">
-        <v>-2145.573181023228</v>
+        <v>-859.5612395604978</v>
       </c>
       <c r="K105" t="n">
         <v>26.9</v>
@@ -6360,10 +6360,10 @@
         <v>44057.33333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>23.16</v>
+        <v>17.06999999999982</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -6372,19 +6372,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F106" t="n">
-        <v>49.8</v>
+        <v>46.2</v>
       </c>
       <c r="G106" t="n">
         <v>18.45299999999992</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I106" t="n">
-        <v>15.85899999999999</v>
+        <v>15.721</v>
       </c>
       <c r="J106" t="n">
-        <v>-3355.45235362536</v>
+        <v>-915.5956093999995</v>
       </c>
       <c r="K106" t="n">
         <v>27.4</v>
@@ -6416,13 +6416,13 @@
         <v>44057.375</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>23.16</v>
+        <v>17.06999999999982</v>
       </c>
       <c r="D107" t="n">
-        <v>49.8</v>
+        <v>40.2</v>
       </c>
       <c r="E107" t="n">
         <v>0.2600000000002369</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-3313.358552814168</v>
+        <v>-33.42009600000014</v>
       </c>
       <c r="K107" t="n">
         <v>27.620001</v>
@@ -6472,13 +6472,13 @@
         <v>44057.41666666666</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>23.16</v>
+        <v>17.06999999999982</v>
       </c>
       <c r="D108" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E108" t="n">
         <v>0.2599999999999909</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-3680.009338876836</v>
+        <v>-561.9172466797385</v>
       </c>
       <c r="K108" t="n">
         <v>27.629999</v>
@@ -6528,13 +6528,13 @@
         <v>44057.45833333334</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>23.16</v>
+        <v>17.06999999999982</v>
       </c>
       <c r="D109" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E109" t="n">
         <v>0.2599999999999909</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-3697.510001352938</v>
+        <v>-625.1697867770291</v>
       </c>
       <c r="K109" t="n">
         <v>28.1</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>30.11</v>
+        <v>28.21000000000004</v>
       </c>
       <c r="D110" t="n">
         <v>49.8</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-3308.106391628812</v>
+        <v>852.516187029151</v>
       </c>
       <c r="K110" t="n">
         <v>26.42</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>30.11</v>
+        <v>28.21000000000004</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>13.143</v>
+        <v>13.14299999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>-3688.633443882529</v>
+        <v>448.544584357813</v>
       </c>
       <c r="K111" t="n">
         <v>24.76</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>30.11</v>
+        <v>28.21000000000004</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>13.143</v>
+        <v>13.278</v>
       </c>
       <c r="J112" t="n">
-        <v>-3014.953541068138</v>
+        <v>154.9944018212291</v>
       </c>
       <c r="K112" t="n">
         <v>24.530001</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>30.11</v>
+        <v>28.21000000000004</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>13.143</v>
       </c>
       <c r="J113" t="n">
-        <v>-2591.935440807381</v>
+        <v>-51.2103157044132</v>
       </c>
       <c r="K113" t="n">
         <v>24.16</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>13.143</v>
+        <v>13.101</v>
       </c>
       <c r="J114" t="n">
-        <v>-1880.555479126882</v>
+        <v>1169.606484919458</v>
       </c>
       <c r="K114" t="n">
         <v>23.860001</v>
@@ -6876,19 +6876,19 @@
         <v>0.39</v>
       </c>
       <c r="F115" t="n">
-        <v>49.8</v>
+        <v>3.5</v>
       </c>
       <c r="G115" t="n">
         <v>14.94900000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="I115" t="n">
-        <v>13.143</v>
+        <v>13.101</v>
       </c>
       <c r="J115" t="n">
-        <v>-879.131062666921</v>
+        <v>-663.3151837300004</v>
       </c>
       <c r="K115" t="n">
         <v>25.559999</v>
@@ -6932,19 +6932,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F116" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>15.37399999999997</v>
+        <v>16.317</v>
       </c>
       <c r="H116" t="n">
-        <v>32.8</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>13.101</v>
       </c>
       <c r="J116" t="n">
-        <v>-696.150970494025</v>
+        <v>-433.0476403290345</v>
       </c>
       <c r="K116" t="n">
         <v>28.8</v>
@@ -7000,7 +7000,7 @@
         <v>13.101</v>
       </c>
       <c r="J117" t="n">
-        <v>-420.7898097753456</v>
+        <v>-205.0260577118115</v>
       </c>
       <c r="K117" t="n">
         <v>33</v>
@@ -7056,7 +7056,7 @@
         <v>13.101</v>
       </c>
       <c r="J118" t="n">
-        <v>-208.9361896101713</v>
+        <v>-208.9361896101709</v>
       </c>
       <c r="K118" t="n">
         <v>34.139999</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>16.466</v>
+        <v>16.07299999999992</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7112,7 +7112,7 @@
         <v>13.952</v>
       </c>
       <c r="J119" t="n">
-        <v>-248.3329215639499</v>
+        <v>-248.3329215639503</v>
       </c>
       <c r="K119" t="n">
         <v>35.490002</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>16.611</v>
+        <v>16.608</v>
       </c>
       <c r="H120" t="n">
         <v>49.8</v>
@@ -7168,7 +7168,7 @@
         <v>14.09499999999997</v>
       </c>
       <c r="J120" t="n">
-        <v>-243.3688476666675</v>
+        <v>-243.3688476666681</v>
       </c>
       <c r="K120" t="n">
         <v>38.43</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>16.60799999999999</v>
+        <v>15.44299999999993</v>
       </c>
       <c r="H121" t="n">
         <v>49.8</v>
@@ -7280,7 +7280,7 @@
         <v>14.762</v>
       </c>
       <c r="J122" t="n">
-        <v>-486.324767756852</v>
+        <v>-486.3247677568521</v>
       </c>
       <c r="K122" t="n">
         <v>30.67</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>381.722757082559</v>
+        <v>2573.911132021961</v>
       </c>
       <c r="K123" t="n">
         <v>27.82</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>372.1526315600674</v>
+        <v>2512.461491905673</v>
       </c>
       <c r="K124" t="n">
         <v>26.9</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2431.21828658072</v>
+        <v>2431.218286580719</v>
       </c>
       <c r="K125" t="n">
         <v>25.25</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2458.922362245277</v>
+        <v>2486.200057898543</v>
       </c>
       <c r="K126" t="n">
         <v>25.23</v>
@@ -7548,19 +7548,19 @@
         <v>0.26</v>
       </c>
       <c r="F127" t="n">
-        <v>33.5</v>
+        <v>49.8</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>20.28499999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>18.734</v>
       </c>
       <c r="J127" t="n">
-        <v>293.0319607307909</v>
+        <v>1486.635606127775</v>
       </c>
       <c r="K127" t="n">
         <v>25.9</v>
@@ -7604,19 +7604,19 @@
         <v>0.26</v>
       </c>
       <c r="F128" t="n">
-        <v>41.90000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>20.28499999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>7.9</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>18.734</v>
       </c>
       <c r="J128" t="n">
-        <v>-924.4904818153788</v>
+        <v>-917.9648843052396</v>
       </c>
       <c r="K128" t="n">
         <v>25.459999</v>
@@ -7669,10 +7669,10 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>16.004</v>
+        <v>15.856</v>
       </c>
       <c r="J129" t="n">
-        <v>-1889.580231223185</v>
+        <v>1477.461052884398</v>
       </c>
       <c r="K129" t="n">
         <v>26.9</v>
@@ -7704,10 +7704,10 @@
         <v>44058.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>27.92</v>
+        <v>23.15999999999997</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -7716,7 +7716,7 @@
         <v>0.27</v>
       </c>
       <c r="F130" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G130" t="n">
         <v>17.11899999999997</v>
@@ -7725,10 +7725,10 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>16.004</v>
+        <v>15.856</v>
       </c>
       <c r="J130" t="n">
-        <v>-3066.347271117006</v>
+        <v>1450.834915408531</v>
       </c>
       <c r="K130" t="n">
         <v>27.4</v>
@@ -7760,10 +7760,10 @@
         <v>44058.375</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>27.92</v>
+        <v>23.15999999999997</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -7772,10 +7772,10 @@
         <v>0.27</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G131" t="n">
-        <v>17.119</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>13.983</v>
       </c>
       <c r="J131" t="n">
-        <v>-3053.332939603213</v>
+        <v>-943.8051801282069</v>
       </c>
       <c r="K131" t="n">
         <v>27.620001</v>
@@ -7816,13 +7816,13 @@
         <v>44058.41666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>27.92</v>
+        <v>23.15999999999997</v>
       </c>
       <c r="D132" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E132" t="n">
         <v>0.26</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-3487.514635369994</v>
+        <v>-2066.521399276495</v>
       </c>
       <c r="K132" t="n">
         <v>27.629999</v>
@@ -7872,13 +7872,13 @@
         <v>44058.45833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>27.92</v>
+        <v>23.15999999999997</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E133" t="n">
         <v>0.26</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-3639.792516559598</v>
+        <v>95.64492947770323</v>
       </c>
       <c r="K133" t="n">
         <v>28.1</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-3149.045944581056</v>
+        <v>-1250.698783887329</v>
       </c>
       <c r="K134" t="n">
         <v>26.42</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>13.143</v>
+        <v>13.274</v>
       </c>
       <c r="J135" t="n">
-        <v>-3277.760104001207</v>
+        <v>-2022.316494213455</v>
       </c>
       <c r="K135" t="n">
         <v>24.76</v>
@@ -8055,7 +8055,7 @@
         <v>49.8</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>15.80500000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>13.143</v>
       </c>
       <c r="J136" t="n">
-        <v>-2975.500475939255</v>
+        <v>624.8722332748529</v>
       </c>
       <c r="K136" t="n">
         <v>24.530001</v>
@@ -8120,7 +8120,7 @@
         <v>13.143</v>
       </c>
       <c r="J137" t="n">
-        <v>-2329.572983178175</v>
+        <v>-779.9363559675093</v>
       </c>
       <c r="K137" t="n">
         <v>24.16</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>13.451</v>
+        <v>17.917</v>
       </c>
       <c r="J138" t="n">
-        <v>-1526.872458392282</v>
+        <v>490.831489159214</v>
       </c>
       <c r="K138" t="n">
         <v>23.860001</v>
@@ -8220,19 +8220,19 @@
         <v>0.26</v>
       </c>
       <c r="F139" t="n">
-        <v>41.3</v>
+        <v>49.8</v>
       </c>
       <c r="G139" t="n">
         <v>15.483</v>
       </c>
       <c r="H139" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>13.14299999999997</v>
+        <v>13.451</v>
       </c>
       <c r="J139" t="n">
-        <v>-809.6649923495927</v>
+        <v>317.1780675764491</v>
       </c>
       <c r="K139" t="n">
         <v>25.559999</v>
@@ -8276,19 +8276,19 @@
         <v>0.270000000000246</v>
       </c>
       <c r="F140" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>15.37700000000001</v>
+        <v>17.975</v>
       </c>
       <c r="H140" t="n">
-        <v>35.8</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J140" t="n">
-        <v>-748.8050581346247</v>
+        <v>-512.3412289432409</v>
       </c>
       <c r="K140" t="n">
         <v>28.8</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>15.525</v>
+        <v>18.051</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>13.274</v>
       </c>
       <c r="J141" t="n">
-        <v>-472.0230291703469</v>
+        <v>-290.6950036035753</v>
       </c>
       <c r="K141" t="n">
         <v>33</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>15.525</v>
+        <v>18.051</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8400,7 +8400,7 @@
         <v>13.274</v>
       </c>
       <c r="J142" t="n">
-        <v>-287.539453247866</v>
+        <v>-287.5394532478691</v>
       </c>
       <c r="K142" t="n">
         <v>34.139999</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>16.653</v>
+        <v>16.474</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>16.942</v>
+        <v>16.617</v>
       </c>
       <c r="H144" t="n">
         <v>49.8</v>
@@ -8512,7 +8512,7 @@
         <v>13.23399999999998</v>
       </c>
       <c r="J144" t="n">
-        <v>-331.2681112696764</v>
+        <v>-331.2681112696774</v>
       </c>
       <c r="K144" t="n">
         <v>38.43</v>
@@ -8556,19 +8556,19 @@
         <v>0.26</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G145" t="n">
-        <v>16.942</v>
+        <v>16.61099999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>13.23399999999998</v>
+        <v>14.229</v>
       </c>
       <c r="J145" t="n">
-        <v>-376.4956255174334</v>
+        <v>1891.870491229243</v>
       </c>
       <c r="K145" t="n">
         <v>34.889999</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>17.737</v>
+        <v>17.27299999999997</v>
       </c>
       <c r="H146" t="n">
         <v>47.8</v>
@@ -8624,7 +8624,7 @@
         <v>14.762</v>
       </c>
       <c r="J146" t="n">
-        <v>-285.8430301229349</v>
+        <v>-285.8430301229353</v>
       </c>
       <c r="K146" t="n">
         <v>34.630001</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>406.5735718989917</v>
+        <v>406.5735718989916</v>
       </c>
       <c r="K147" t="n">
         <v>30.559999</v>
@@ -8718,10 +8718,10 @@
         <v>23</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E148" t="n">
-        <v>0.39</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>388.0630617241852</v>
+        <v>2592.511154240858</v>
       </c>
       <c r="K148" t="n">
         <v>27.93</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2481.851594238487</v>
+        <v>2484.940195887333</v>
       </c>
       <c r="K149" t="n">
         <v>26.30001</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>24.64</v>
+        <v>27.92</v>
       </c>
       <c r="D150" t="n">
         <v>49.8</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2458.154457327683</v>
+        <v>2475.737549699988</v>
       </c>
       <c r="K150" t="n">
         <v>25</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>24.64</v>
+        <v>27.92</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8892,19 +8892,19 @@
         <v>0.39</v>
       </c>
       <c r="F151" t="n">
-        <v>4.2</v>
+        <v>49.8</v>
       </c>
       <c r="G151" t="n">
         <v>20.28499999999991</v>
       </c>
       <c r="H151" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>18.596</v>
+        <v>18.734</v>
       </c>
       <c r="J151" t="n">
-        <v>-1026.98928132</v>
+        <v>1376.704619547498</v>
       </c>
       <c r="K151" t="n">
         <v>25.40001</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>24.64</v>
+        <v>27.92</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0.39</v>
       </c>
       <c r="F152" t="n">
-        <v>36.1</v>
+        <v>27.5</v>
       </c>
       <c r="G152" t="n">
         <v>20.28499999999991</v>
       </c>
       <c r="H152" t="n">
-        <v>13.7</v>
+        <v>22.3</v>
       </c>
       <c r="I152" t="n">
         <v>18.596</v>
       </c>
       <c r="J152" t="n">
-        <v>-1046.634588976993</v>
+        <v>-1042.68772156</v>
       </c>
       <c r="K152" t="n">
         <v>25.18</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>24.64</v>
+        <v>27.92</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9004,19 +9004,19 @@
         <v>0.39</v>
       </c>
       <c r="F153" t="n">
-        <v>49.8</v>
+        <v>29.4</v>
       </c>
       <c r="G153" t="n">
         <v>18.45599999999996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="I153" t="n">
-        <v>15.866</v>
+        <v>15.85499999999996</v>
       </c>
       <c r="J153" t="n">
-        <v>-1853.92700157964</v>
+        <v>-875.0563939199999</v>
       </c>
       <c r="K153" t="n">
         <v>26.299999</v>
@@ -9060,19 +9060,19 @@
         <v>0.39</v>
       </c>
       <c r="F154" t="n">
-        <v>49.8</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="G154" t="n">
         <v>18.45599999999996</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="I154" t="n">
-        <v>15.866</v>
+        <v>15.85499999999996</v>
       </c>
       <c r="J154" t="n">
-        <v>-3085.191774964545</v>
+        <v>-917.8857408596318</v>
       </c>
       <c r="K154" t="n">
         <v>26.290001</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-3071.569931334048</v>
+        <v>-454.1361180108358</v>
       </c>
       <c r="K155" t="n">
         <v>23.950001</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-3417.589023489472</v>
+        <v>-2719.667103437127</v>
       </c>
       <c r="K156" t="n">
         <v>20.82</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-3452.571804424751</v>
+        <v>-746.3402613611123</v>
       </c>
       <c r="K157" t="n">
         <v>20.18</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>20.8</v>
+        <v>29.2</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-3236.629354199437</v>
+        <v>-2369.309562603178</v>
       </c>
       <c r="K158" t="n">
         <v>20.26</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>20.8</v>
+        <v>29.2</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>13.272</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J159" t="n">
-        <v>-3553.604807344914</v>
+        <v>-2758.020870652951</v>
       </c>
       <c r="K159" t="n">
         <v>17.440001</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>20.8</v>
+        <v>29.2</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>13.272</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J160" t="n">
-        <v>-3029.635914918242</v>
+        <v>-2204.187860337169</v>
       </c>
       <c r="K160" t="n">
         <v>15.24</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>20.8</v>
+        <v>29.2</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>13.272</v>
+        <v>13.14299999999997</v>
       </c>
       <c r="J161" t="n">
-        <v>-2598.499041583061</v>
+        <v>-2109.67741585762</v>
       </c>
       <c r="K161" t="n">
         <v>16.5</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>23.73</v>
+        <v>25.12</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>13.272</v>
       </c>
       <c r="J162" t="n">
-        <v>-1779.600715169838</v>
+        <v>-1397.658670408914</v>
       </c>
       <c r="K162" t="n">
         <v>18.450001</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>23.73</v>
+        <v>25.12</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0.39</v>
       </c>
       <c r="F163" t="n">
-        <v>49.7</v>
+        <v>33.1</v>
       </c>
       <c r="G163" t="n">
         <v>14.952</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="I163" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J163" t="n">
-        <v>-763.3213514499997</v>
+        <v>-728.9940878899995</v>
       </c>
       <c r="K163" t="n">
         <v>25.1</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>23.73</v>
+        <v>25.12</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>0.39</v>
       </c>
       <c r="F164" t="n">
-        <v>14.6</v>
+        <v>1.5</v>
       </c>
       <c r="G164" t="n">
         <v>15.37700000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>35.2</v>
+        <v>48.3</v>
       </c>
       <c r="I164" t="n">
         <v>13.14299999999997</v>
       </c>
       <c r="J164" t="n">
-        <v>-692.86125594</v>
+        <v>-661.5027602100002</v>
       </c>
       <c r="K164" t="n">
         <v>28.9</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>23.73</v>
+        <v>25.12</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>13.27199999999999</v>
       </c>
       <c r="J165" t="n">
-        <v>-380.2661987728252</v>
+        <v>-209.6059712733119</v>
       </c>
       <c r="K165" t="n">
         <v>31.58</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>18.4</v>
+        <v>20.16</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>18.4</v>
+        <v>20.16</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>16.46899999999998</v>
+        <v>16.469</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>18.4</v>
+        <v>20.16</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>16.61099999999998</v>
+        <v>15.44599999999997</v>
       </c>
       <c r="H168" t="n">
         <v>49.8</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>18.4</v>
+        <v>20.16</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>16.611</v>
+        <v>15.44599999999997</v>
       </c>
       <c r="H169" t="n">
         <v>49.8</v>
